--- a/marsframework-master/MarsFramework/TestData/ServiceListData.xlsx
+++ b/marsframework-master/MarsFramework/TestData/ServiceListData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shankar kiran\Downloads\TestMVP\onboarding.specflow-master\MarsQA-1\SpecflowTests\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CompetitionTask\marsframework-master\MarsFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211433D5-4BB9-4DB6-8DB7-3AA507F6BC64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8F19A1-4AE4-4E44-AE2A-9993F2D611E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{9F4862AE-70D5-4833-9E8D-3EB681FCBED0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Title</t>
   </si>
@@ -61,6 +61,39 @@
   </si>
   <si>
     <t>Content Marketing</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>TagsFirstTag</t>
+  </si>
+  <si>
+    <t>SecondTag</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>MondayStartTime</t>
+  </si>
+  <si>
+    <t>0930am</t>
+  </si>
+  <si>
+    <t>0530pm</t>
+  </si>
+  <si>
+    <t>MondayendTime</t>
+  </si>
+  <si>
+    <t>SkillExchangeTags</t>
+  </si>
+  <si>
+    <t>FirstSkillExchangeTag</t>
   </si>
 </sst>
 </file>
@@ -419,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A408F076-E86F-4D91-AB91-1758782C94BC}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,9 +464,15 @@
     <col min="2" max="2" width="23.26953125" customWidth="1"/>
     <col min="3" max="3" width="24.36328125" customWidth="1"/>
     <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" customWidth="1"/>
+    <col min="7" max="7" width="22.08984375" customWidth="1"/>
+    <col min="8" max="8" width="26.36328125" customWidth="1"/>
+    <col min="9" max="9" width="21.90625" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,8 +485,26 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -460,8 +517,26 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>25062020</v>
+      </c>
+      <c r="G2">
+        <v>25072020</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -474,8 +549,26 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>25072020</v>
+      </c>
+      <c r="G3">
+        <v>25082020</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
     </row>
   </sheetData>
